--- a/SuppXLS/Scen_RES_SHARE_90%_24_7.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_90%_24_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_IND_8760\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IPoY45/Shared Documents/CFE/Models/CFE_NL_IND_8760/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F1C3DF-FED3-4127-9097-1FFD92F16FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{07F1C3DF-FED3-4127-9097-1FFD92F16FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D966BEE3-4D26-4B51-8EDB-BFF3F8080D34}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4635" windowWidth="20205" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS_1" sheetId="11" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>FLO_SHAR</t>
   </si>
   <si>
-    <t>FX</t>
+    <t>LO</t>
   </si>
 </sst>
 </file>
@@ -3634,6 +3634,7 @@
     <cellStyle name="Neutralne 9 3" xfId="862" xr:uid="{CB6BA6F4-CC21-403A-827A-D04A91A41706}"/>
     <cellStyle name="Neutralne_D_HEAT" xfId="863" xr:uid="{6541930B-0D14-4E33-965D-6332B2EB3399}"/>
     <cellStyle name="no dec" xfId="864" xr:uid="{A3E70DB8-9FC2-46E7-BD3B-28EECC21EB65}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="865" xr:uid="{DF9726F4-5F08-48B2-84CE-40B586083901}"/>
     <cellStyle name="Normal - Style1 2" xfId="1264" xr:uid="{C75AF658-2A68-4819-B723-3BC059B30D69}"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -3662,7 +3663,6 @@
     <cellStyle name="Normal GHG-Shade 2" xfId="879" xr:uid="{852C2481-D142-4AA9-83B6-686345ACAD8F}"/>
     <cellStyle name="Normal_Scen_COM-FR_FromIER" xfId="1281" xr:uid="{DAA63D92-545A-4B69-9E7C-4B0DDC7D7DBB}"/>
     <cellStyle name="Normale_B2020" xfId="278" xr:uid="{E84A154A-9614-4FB1-88A8-5F8ACFD48522}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="880" xr:uid="{630AAD92-F479-4F0C-881D-B48C1E060AC0}"/>
     <cellStyle name="Normalny 10 2" xfId="881" xr:uid="{097C6023-8D06-40E7-BC74-68C4E3E7F544}"/>
     <cellStyle name="Normalny 10 2 2" xfId="882" xr:uid="{5CAE1D6A-7001-4FB1-83D8-B01C91F3EEF3}"/>
@@ -4416,17 +4416,17 @@
   <dimension ref="B3:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1">
+    <row r="4" spans="2:8" ht="15" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4487,6 +4487,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="853a583b-5a39-49db-b57b-0c8a2ee0f312" xsi:nil="true"/>
@@ -4497,18 +4506,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100478D9ACB663A0B44ABC718894EB3A5FF" ma:contentTypeVersion="12" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="1e947dbeecc0105382883177c1567d63">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45d80b71-d53a-4925-9636-d69011c62a0b" xmlns:ns3="853a583b-5a39-49db-b57b-0c8a2ee0f312" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="301260a7e0c41c498f96881b840e0917" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100478D9ACB663A0B44ABC718894EB3A5FF" ma:contentTypeVersion="12" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="5851258cc5066775e2233077090f9598">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45d80b71-d53a-4925-9636-d69011c62a0b" xmlns:ns3="853a583b-5a39-49db-b57b-0c8a2ee0f312" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ba2f572c61682d4efb87b423657bb10" ns2:_="" ns3:_="">
     <xsd:import namespace="45d80b71-d53a-4925-9636-d69011c62a0b"/>
     <xsd:import namespace="853a583b-5a39-49db-b57b-0c8a2ee0f312"/>
     <xsd:element name="properties">
@@ -4708,13 +4708,30 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B94471-DBFC-4A49-834D-3B00578A6506}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0BB86C0-4F74-4212-8EFF-EBE58D98375D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0BB86C0-4F74-4212-8EFF-EBE58D98375D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B94471-DBFC-4A49-834D-3B00578A6506}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="853a583b-5a39-49db-b57b-0c8a2ee0f312"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="45d80b71-d53a-4925-9636-d69011c62a0b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B19EAAB7-8FD6-4ACB-A7AF-27190F80FF17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A310C22F-58B9-4709-8318-27C8BA692525}"/>
 </file>